--- a/AggrFiles/After Aggr_SGLT2.xlsx
+++ b/AggrFiles/After Aggr_SGLT2.xlsx
@@ -527,9 +527,20 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <b val="1"/>
         <i val="0"/>
         <color rgb="FF000000"/>
@@ -548,10 +559,10 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
@@ -560,7 +571,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.11"/>
@@ -1704,6 +1716,11 @@
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>44000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
